--- a/manifest_templates/files_manifest.xlsx
+++ b/manifest_templates/files_manifest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vchung/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BF8D4B-67E9-654A-84AA-11E4114FBC03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3275F5-6D99-5446-8022-2AF1B1F02F2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="460" windowWidth="26080" windowHeight="17540" xr2:uid="{699C1E4D-FBE1-2149-B5D3-FBE286AFA841}"/>
+    <workbookView xWindow="2720" yWindow="500" windowWidth="26080" windowHeight="17500" xr2:uid="{699C1E4D-FBE1-2149-B5D3-FBE286AFA841}"/>
   </bookViews>
   <sheets>
     <sheet name="manifest" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="587">
   <si>
     <t>datasetName</t>
   </si>
@@ -1796,6 +1796,9 @@
   </si>
   <si>
     <t>Urothelial Carcinoma</t>
+  </si>
+  <si>
+    <t>Must use controlled-vocabulary terms</t>
   </si>
 </sst>
 </file>
@@ -1833,12 +1836,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1853,7 +1862,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1867,6 +1876,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2215,25 +2225,25 @@
       <c r="E1" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -2297,7 +2307,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D53A8F76-86B7-3E45-842B-2C81D5958002}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2369,7 +2381,9 @@
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
@@ -2378,7 +2392,9 @@
       <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
@@ -2387,7 +2403,9 @@
       <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
@@ -2396,7 +2414,9 @@
       <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
@@ -2405,7 +2425,9 @@
       <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
@@ -2414,7 +2436,9 @@
       <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
@@ -2423,7 +2447,9 @@
       <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
@@ -2444,7 +2470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15D8B27-E64A-854A-A402-5BD6913012A0}">
   <dimension ref="A1:C566"/>
   <sheetViews>
-    <sheetView topLeftCell="A400" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>

--- a/manifest_templates/files_manifest.xlsx
+++ b/manifest_templates/files_manifest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vchung/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vchung/Desktop/csbc-pson-dcc/manifest_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3275F5-6D99-5446-8022-2AF1B1F02F2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7EFAD62-80AF-8946-9026-46AD6A1A8BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="500" windowWidth="26080" windowHeight="17500" xr2:uid="{699C1E4D-FBE1-2149-B5D3-FBE286AFA841}"/>
+    <workbookView xWindow="2720" yWindow="500" windowWidth="40540" windowHeight="17500" xr2:uid="{699C1E4D-FBE1-2149-B5D3-FBE286AFA841}"/>
   </bookViews>
   <sheets>
     <sheet name="manifest" sheetId="1" r:id="rId1"/>
@@ -2252,54 +2252,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{65498581-D402-2941-BA11-D491DC8E7647}">
-          <x14:formula1>
-            <xm:f>standard_terms!$B$235:$B$261</xm:f>
-          </x14:formula1>
-          <xm:sqref>G2:G1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{79C9852E-8342-A140-A692-3F8534689EB4}">
-          <x14:formula1>
-            <xm:f>standard_terms!$B$194:$B$234</xm:f>
-          </x14:formula1>
-          <xm:sqref>H2:H1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{DCDE5A15-720E-844B-9284-441A30410061}">
-          <x14:formula1>
-            <xm:f>standard_terms!$B$267:$B$279</xm:f>
-          </x14:formula1>
-          <xm:sqref>I2:I1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{3EA22FF0-3EEA-AA4A-BD8C-E961D625194B}">
-          <x14:formula1>
-            <xm:f>standard_terms!$B$262:$B$266</xm:f>
-          </x14:formula1>
-          <xm:sqref>J2:J1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{B068EA18-B2A9-0740-96B2-0E9839D88E4F}">
-          <x14:formula1>
-            <xm:f>standard_terms!$B$2:$B$193</xm:f>
-          </x14:formula1>
-          <xm:sqref>F2:F1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{6AFE858B-80E4-9C42-9188-F2366CF608D0}">
-          <x14:formula1>
-            <xm:f>standard_terms!$B$417:$B$566</xm:f>
-          </x14:formula1>
-          <xm:sqref>K2:K1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Value is not one of the acceptable values for this column. Please see `standard_terms` tab for more information." prompt="Select value from the dropdown list." xr:uid="{BA2301E7-B7B5-AB49-B6E9-6950BB57B987}">
-          <x14:formula1>
-            <xm:f>standard_terms!$B$280:$B$416</xm:f>
-          </x14:formula1>
-          <xm:sqref>L2:L1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
